--- a/ORG_INSTITUTE.xlsx
+++ b/ORG_INSTITUTE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D499D72-6820-4CE0-ABCA-DB267AE14651}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7123A82F-C46B-45E5-AE13-B26017E7B00B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="288">
   <si>
     <t>ORG_INS_PK</t>
   </si>
@@ -875,6 +875,15 @@
   </si>
   <si>
     <t>สำนักเทคโนโลยีการบินและอวกาศ</t>
+  </si>
+  <si>
+    <t>ORG_INS_IDENOLD</t>
+  </si>
+  <si>
+    <t>ORG_INS_IDENNEW</t>
+  </si>
+  <si>
+    <t>ORG_INS_STATUS</t>
   </si>
 </sst>
 </file>
@@ -1195,22 +1204,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C168"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167:C168"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.6328125" style="1" customWidth="1"/>
-    <col min="4" max="11" width="28.6328125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="28.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" style="1" customWidth="1"/>
+    <col min="4" max="11" width="28.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1220,8 +1229,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>35001</v>
       </c>
@@ -1232,7 +1250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>35002</v>
       </c>
@@ -1243,7 +1261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>35003</v>
       </c>
@@ -1254,7 +1272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>35004</v>
       </c>
@@ -1265,7 +1283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>35005</v>
       </c>
@@ -1276,7 +1294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>35006</v>
       </c>
@@ -1287,7 +1305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>35007</v>
       </c>
@@ -1298,7 +1316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>35008</v>
       </c>
@@ -1309,7 +1327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>35009</v>
       </c>
@@ -1320,7 +1338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>35010</v>
       </c>
@@ -1331,7 +1349,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>35011</v>
       </c>
@@ -1342,7 +1360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>35012</v>
       </c>
@@ -1353,7 +1371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>35013</v>
       </c>
@@ -1364,7 +1382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>35014</v>
       </c>
@@ -1375,7 +1393,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>35015</v>
       </c>
@@ -1386,7 +1404,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>35016</v>
       </c>
@@ -1397,7 +1415,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>35017</v>
       </c>
@@ -1408,7 +1426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>35018</v>
       </c>
@@ -1419,7 +1437,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>35019</v>
       </c>
@@ -1430,7 +1448,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>35020</v>
       </c>
@@ -1441,7 +1459,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>35021</v>
       </c>
@@ -1452,7 +1470,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>35022</v>
       </c>
@@ -1463,7 +1481,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>35023</v>
       </c>
@@ -1474,7 +1492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>35024</v>
       </c>
@@ -1485,7 +1503,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>35025</v>
       </c>
@@ -1496,7 +1514,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>35026</v>
       </c>
@@ -1507,7 +1525,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>35027</v>
       </c>
@@ -1518,7 +1536,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>35028</v>
       </c>
@@ -1529,7 +1547,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>35029</v>
       </c>
@@ -1540,7 +1558,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>35030</v>
       </c>
@@ -1551,7 +1569,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>35031</v>
       </c>
@@ -1562,7 +1580,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>35032</v>
       </c>
@@ -1573,7 +1591,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>35033</v>
       </c>
@@ -1584,7 +1602,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35034</v>
       </c>
@@ -1595,7 +1613,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35035</v>
       </c>
@@ -1606,7 +1624,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35036</v>
       </c>
@@ -1617,7 +1635,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35037</v>
       </c>
@@ -1628,7 +1646,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>35038</v>
       </c>
@@ -1639,7 +1657,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>35039</v>
       </c>
@@ -1650,7 +1668,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>35040</v>
       </c>
@@ -1661,7 +1679,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>35041</v>
       </c>
@@ -1672,7 +1690,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>35042</v>
       </c>
@@ -1683,7 +1701,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>35043</v>
       </c>
@@ -1694,7 +1712,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>35044</v>
       </c>
@@ -1705,7 +1723,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>35045</v>
       </c>
@@ -1716,7 +1734,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>35046</v>
       </c>
@@ -1727,7 +1745,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>35047</v>
       </c>
@@ -1738,7 +1756,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>35048</v>
       </c>
@@ -1749,7 +1767,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>35049</v>
       </c>
@@ -1760,7 +1778,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>35050</v>
       </c>
@@ -1771,7 +1789,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>35051</v>
       </c>
@@ -1782,7 +1800,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>35052</v>
       </c>
@@ -1793,7 +1811,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>35053</v>
       </c>
@@ -1804,7 +1822,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>35054</v>
       </c>
@@ -1815,7 +1833,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>35055</v>
       </c>
@@ -1826,7 +1844,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>35056</v>
       </c>
@@ -1837,7 +1855,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>35057</v>
       </c>
@@ -1848,7 +1866,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>35058</v>
       </c>
@@ -1859,7 +1877,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>35059</v>
       </c>
@@ -1870,7 +1888,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>35060</v>
       </c>
@@ -1881,7 +1899,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>35061</v>
       </c>
@@ -1892,7 +1910,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>35062</v>
       </c>
@@ -1903,7 +1921,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>35063</v>
       </c>
@@ -1914,7 +1932,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>35064</v>
       </c>
@@ -1925,7 +1943,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>35065</v>
       </c>
@@ -1936,7 +1954,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>35066</v>
       </c>
@@ -1947,7 +1965,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>35067</v>
       </c>
@@ -1958,7 +1976,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>35068</v>
       </c>
@@ -1969,7 +1987,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>35069</v>
       </c>
@@ -1980,7 +1998,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>35070</v>
       </c>
@@ -1991,7 +2009,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>35071</v>
       </c>
@@ -2002,7 +2020,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>35072</v>
       </c>
@@ -2013,7 +2031,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>35073</v>
       </c>
@@ -2024,7 +2042,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>35074</v>
       </c>
@@ -2035,7 +2053,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>35075</v>
       </c>
@@ -2046,7 +2064,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>35076</v>
       </c>
@@ -2057,7 +2075,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>35077</v>
       </c>
@@ -2068,7 +2086,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>35078</v>
       </c>
@@ -2079,7 +2097,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>35079</v>
       </c>
@@ -2090,7 +2108,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>35080</v>
       </c>
@@ -2101,7 +2119,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>35081</v>
       </c>
@@ -2112,7 +2130,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>35082</v>
       </c>
@@ -2123,7 +2141,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>35083</v>
       </c>
@@ -2134,7 +2152,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>35084</v>
       </c>
@@ -2145,7 +2163,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>35085</v>
       </c>
@@ -2156,7 +2174,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>35086</v>
       </c>
@@ -2167,7 +2185,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>35087</v>
       </c>
@@ -2178,7 +2196,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>35088</v>
       </c>
@@ -2189,7 +2207,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>35089</v>
       </c>
@@ -2197,7 +2215,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>35090</v>
       </c>
@@ -2208,7 +2226,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>35091</v>
       </c>
@@ -2219,7 +2237,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>35092</v>
       </c>
@@ -2230,7 +2248,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>35093</v>
       </c>
@@ -2241,7 +2259,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>35094</v>
       </c>
@@ -2252,7 +2270,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>35095</v>
       </c>
@@ -2263,7 +2281,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>35096</v>
       </c>
@@ -2274,7 +2292,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>35097</v>
       </c>
@@ -2285,7 +2303,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>35098</v>
       </c>
@@ -2296,7 +2314,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>35099</v>
       </c>
@@ -2307,7 +2325,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>35100</v>
       </c>
@@ -2318,7 +2336,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>35101</v>
       </c>
@@ -2329,7 +2347,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>35102</v>
       </c>
@@ -2340,7 +2358,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>35103</v>
       </c>
@@ -2351,7 +2369,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>35104</v>
       </c>
@@ -2362,7 +2380,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>35105</v>
       </c>
@@ -2373,7 +2391,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>35106</v>
       </c>
@@ -2384,7 +2402,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>35107</v>
       </c>
@@ -2395,7 +2413,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>35108</v>
       </c>
@@ -2406,7 +2424,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>35109</v>
       </c>
@@ -2417,7 +2435,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>35110</v>
       </c>
@@ -2428,7 +2446,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>35111</v>
       </c>
@@ -2439,7 +2457,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>35112</v>
       </c>
@@ -2450,7 +2468,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>35113</v>
       </c>
@@ -2461,7 +2479,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>35114</v>
       </c>
@@ -2472,7 +2490,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>35115</v>
       </c>
@@ -2483,7 +2501,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>35116</v>
       </c>
@@ -2494,7 +2512,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>35117</v>
       </c>
@@ -2505,7 +2523,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>35118</v>
       </c>
@@ -2516,7 +2534,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>35119</v>
       </c>
@@ -2527,7 +2545,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>35120</v>
       </c>
@@ -2538,7 +2556,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>35121</v>
       </c>
@@ -2549,7 +2567,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>35122</v>
       </c>
@@ -2560,7 +2578,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>35123</v>
       </c>
@@ -2571,7 +2589,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>35124</v>
       </c>
@@ -2582,7 +2600,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>35125</v>
       </c>
@@ -2593,7 +2611,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>35126</v>
       </c>
@@ -2604,7 +2622,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>35127</v>
       </c>
@@ -2615,7 +2633,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>35128</v>
       </c>
@@ -2626,7 +2644,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>35129</v>
       </c>
@@ -2637,7 +2655,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>35130</v>
       </c>
@@ -2648,7 +2666,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>35131</v>
       </c>
@@ -2659,7 +2677,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>35132</v>
       </c>
@@ -2670,7 +2688,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>35133</v>
       </c>
@@ -2681,7 +2699,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>35134</v>
       </c>
@@ -2692,7 +2710,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>35135</v>
       </c>
@@ -2703,7 +2721,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>35136</v>
       </c>
@@ -2714,7 +2732,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>35137</v>
       </c>
@@ -2725,7 +2743,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>35138</v>
       </c>
@@ -2736,7 +2754,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>35139</v>
       </c>
@@ -2747,7 +2765,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>35140</v>
       </c>
@@ -2758,7 +2776,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>35141</v>
       </c>
@@ -2769,7 +2787,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>35142</v>
       </c>
@@ -2780,7 +2798,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>35143</v>
       </c>
@@ -2791,7 +2809,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>35144</v>
       </c>
@@ -2802,7 +2820,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>35145</v>
       </c>
@@ -2813,7 +2831,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>35146</v>
       </c>
@@ -2824,7 +2842,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>35147</v>
       </c>
@@ -2835,7 +2853,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>35148</v>
       </c>
@@ -2846,7 +2864,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>35149</v>
       </c>
@@ -2857,7 +2875,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>35150</v>
       </c>
@@ -2868,7 +2886,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>35151</v>
       </c>
@@ -2879,7 +2897,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>35152</v>
       </c>
@@ -2890,7 +2908,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>35153</v>
       </c>
@@ -2901,7 +2919,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>35154</v>
       </c>
@@ -2912,7 +2930,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>35155</v>
       </c>
@@ -2923,7 +2941,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>35156</v>
       </c>
@@ -2934,7 +2952,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>35157</v>
       </c>
@@ -2945,7 +2963,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>35158</v>
       </c>
@@ -2956,7 +2974,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>35159</v>
       </c>
@@ -2967,7 +2985,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>35160</v>
       </c>
@@ -2978,7 +2996,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>35161</v>
       </c>
@@ -2989,7 +3007,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>35162</v>
       </c>
@@ -3000,7 +3018,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>35163</v>
       </c>
@@ -3011,7 +3029,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>35164</v>
       </c>
@@ -3022,7 +3040,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>35165</v>
       </c>
@@ -3033,11 +3051,11 @@
         <v>284</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B167"/>
       <c r="C167"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B168"/>
       <c r="C168"/>
     </row>
